--- a/trerep/wwwroot/CustomerReport.xlsx
+++ b/trerep/wwwroot/CustomerReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Tháng</t>
   </si>
@@ -27,6 +27,39 @@
   </si>
   <si>
     <t xml:space="preserve">SL KHDN MBNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL KHDN IRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL KHCN MBNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL KHDN TLHH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL KHDN TDPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL KHDN CoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL KHDN CCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL KHDN DCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fx</t>
   </si>
 </sst>
 </file>
@@ -98,8 +131,55 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:T9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>